--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -11,8 +11,25 @@
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Yapıldı</t>
+  </si>
+  <si>
+    <t>Yasin Yapıyor</t>
+  </si>
+  <si>
+    <t>Yavuz Yapıyor</t>
+  </si>
+  <si>
+    <t>Yapılacak</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +60,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -59,7 +92,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
     <a:clrScheme name="Ofis">
       <a:dk1>
@@ -343,12 +376,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
